--- a/students.xlsx
+++ b/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="8448" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="8448" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SC-HCE" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Courses" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Students!$A$1:$A$175</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="5">Students!$D$1:$D$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Students!$A$1:$A$119</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">Students!$D$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="150">
   <si>
     <t>ڈاکٹر رضوانہ درانی صاحبہ</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ضیأ ملک صاحب</t>
   </si>
   <si>
-    <t>نامعلوم</t>
-  </si>
-  <si>
     <t>پروفیسر ارشاد ضیأ صاحب</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>سراج احمد صاحب</t>
   </si>
   <si>
-    <t>غلام شبیر ساحب</t>
-  </si>
-  <si>
     <t>اسامہ شفیق صاحب</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>گوھر  رحم‏ن  صاحب</t>
   </si>
   <si>
-    <t xml:space="preserve">عاصم  جواد+عاصمہ  قاضی  </t>
-  </si>
-  <si>
     <t>سائرہ  اعجاز  صاحبہ</t>
   </si>
   <si>
@@ -285,21 +276,9 @@
     <t>عاٴءشہ مشتاق صاحبہ</t>
   </si>
   <si>
-    <t>صالحہ  بیگم  صاحبہ</t>
-  </si>
-  <si>
     <t>پروفیسر ارشاد ضیاٴ صاحب</t>
   </si>
   <si>
-    <t>مرید  علی  صاحب</t>
-  </si>
-  <si>
-    <t>عابد  فہیم  صاحب</t>
-  </si>
-  <si>
-    <t>شازیہ  عابد  صاحب</t>
-  </si>
-  <si>
     <t>رقیہ  عباسی  صاحبہ</t>
   </si>
   <si>
@@ -315,13 +294,7 @@
     <t>ڈاکٹر  رضوانہ  درانی  صاحبہ</t>
   </si>
   <si>
-    <t>شکیلہ  سلطانہ  صاحبہ</t>
-  </si>
-  <si>
     <t>ارم  مشتاق  صاحبہ</t>
-  </si>
-  <si>
-    <t>غلام  شبیر  صاحب</t>
   </si>
   <si>
     <t>دلشاد  احمد  صاحب</t>
@@ -847,13 +820,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -865,13 +838,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -883,13 +856,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -901,13 +874,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -919,13 +892,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -937,13 +910,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -955,13 +928,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -973,13 +946,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -991,13 +964,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1009,13 +982,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1027,13 +1000,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1045,13 +1018,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1063,13 +1036,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -1081,13 +1054,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1099,13 +1072,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1117,13 +1090,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1135,13 +1108,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -1156,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -1171,13 +1144,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -1212,13 +1185,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -1230,13 +1203,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1248,13 +1221,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1266,13 +1239,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1287,10 +1260,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1302,13 +1275,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1320,13 +1293,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1338,13 +1311,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1356,13 +1329,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1377,10 +1350,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1392,13 +1365,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1413,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1431,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -1446,13 +1419,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1464,13 +1437,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1485,10 +1458,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1500,13 +1473,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -1541,13 +1514,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -1562,10 +1535,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1577,13 +1550,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1595,13 +1568,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1613,13 +1586,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1631,13 +1604,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1652,10 +1625,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1667,13 +1640,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1685,13 +1658,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1703,13 +1676,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1724,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1742,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1757,13 +1730,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -1775,13 +1748,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1793,13 +1766,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1837,10 +1810,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -1852,13 +1825,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1873,10 +1846,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1891,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1906,13 +1879,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1924,13 +1897,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1942,13 +1915,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1960,13 +1933,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1978,13 +1951,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1996,13 +1969,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2014,13 +1987,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -2035,10 +2008,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -2053,10 +2026,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -2071,10 +2044,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -2086,13 +2059,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -2104,13 +2077,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -2122,13 +2095,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -2140,13 +2113,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -2185,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E1" t="str">
         <f>CONCATENATE("(2,12,0,","'", A1, "'),")</f>
@@ -2197,13 +2170,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E19" si="0">CONCATENATE("(2,12,0,","'", A2, "'),")</f>
@@ -2212,13 +2185,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -2227,13 +2200,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -2242,13 +2215,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -2260,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -2272,13 +2245,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -2287,13 +2260,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -2302,13 +2275,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -2320,10 +2293,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -2332,13 +2305,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -2347,13 +2320,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -2362,13 +2335,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -2377,13 +2350,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -2392,13 +2365,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -2407,13 +2380,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -2422,13 +2395,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -2437,13 +2410,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -2452,13 +2425,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -2475,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,102 +2462,102 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2592,59 +2565,59 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2652,19 +2625,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2672,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2692,19 +2665,19 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2712,324 +2685,324 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
         <v>114</v>
       </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>123</v>
-      </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -3037,66 +3010,66 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
         <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,28 +3077,28 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -3133,31 +3106,31 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -3165,10 +3138,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3176,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,20 +3173,20 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -3221,7 +3194,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3229,15 +3202,15 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -3245,7 +3218,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -3253,50 +3226,50 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
         <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3304,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,28 +3285,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -3341,26 +3314,26 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,521 +3346,241 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3901,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3915,119 +3608,106 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
